--- a/craw_data/stock.xlsx
+++ b/craw_data/stock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2676,6 +2676,3306 @@
         <v>90.5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>13/05/2024</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>91</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-1(-1.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1,232,600</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>112.22</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>85,121</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="L42" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="M42" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>10/05/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>92</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-0.5(-0.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>823,400</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>75.81999999999999</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="L43" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="M43" t="n">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>09/05/2024</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-0.5(-0.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>606,600</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>56.19</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>85,000</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="K44" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="L44" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="M44" t="n">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>08/05/2024</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>93</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.1(0.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1,246,000</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>115.41</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>79,000</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="K45" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>92.09999999999999</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>07/05/2024</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-0.1(-0.11</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>1,154,200</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>107.8</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="L46" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="M46" t="n">
+        <v>92.90000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>06/05/2024</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>93</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0.5(0.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>1,147,200</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>106.62</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="L47" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0.6(0.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>1,470,700</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="L48" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="M48" t="n">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0.7(0.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>932,400</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>85.43000000000001</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>299,000</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="L49" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="M49" t="n">
+        <v>91.09999999999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>26/04/2024</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.2(0.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>1,698,300</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>65,000</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="K50" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="L50" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="M50" t="n">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>91</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.4(0.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>1,235,700</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>113.32</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>99,000</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="K51" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="L51" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="M51" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>24/04/2024</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.5(0.55</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1,925,200</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>174.56</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>65,000</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>91</v>
+      </c>
+      <c r="L52" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="M52" t="n">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>23/04/2024</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>-0.5(-0.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>1,562,900</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>140.71</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>99,000</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="K53" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="L53" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>22/04/2024</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0.1(0.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>999,100</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>90.64</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>65,000</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K54" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="M54" t="n">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>19/04/2024</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0(0.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>1,324,800</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>119.55</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>99,000</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="K55" t="n">
+        <v>90</v>
+      </c>
+      <c r="L55" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="M55" t="n">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>17/04/2024</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-0.5(-0.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>1,452,600</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>131.61</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>157,100</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="K56" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="L56" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="M56" t="n">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16/04/2024</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>91</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-1(-1.09</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1,857,700</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>170.17</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>99,000</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="K57" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>15/04/2024</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>92</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>-2.6(-2.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1,900,300</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>179.23</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>65,000</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K58" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="L58" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0.6(0.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>844,800</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>99,000</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="K59" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>11/04/2024</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>94</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-0.5(-0.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>778,000</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>73.11</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>45,000</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="K60" t="n">
+        <v>94</v>
+      </c>
+      <c r="L60" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="M60" t="n">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>10/04/2024</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0.2(0.21</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>737,400</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>69.55</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>119,000</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="K61" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="M61" t="n">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>09/04/2024</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>-0.6(-0.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>686,800</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>127,800</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="K62" t="n">
+        <v>95</v>
+      </c>
+      <c r="L62" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="M62" t="n">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0(0.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>864,100</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>81.86</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>96,000</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K63" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="L63" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>05/04/2024</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-1.1(-1.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>779,200</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>73.86</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>45,200</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="L64" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="M64" t="n">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>04/04/2024</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>96</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2.2(2.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2,022,700</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>192.83</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>119,000</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="K65" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="L65" t="n">
+        <v>96</v>
+      </c>
+      <c r="M65" t="n">
+        <v>94.40000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>03/04/2024</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-0.7(-0.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>1,321,100</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>124.45</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="L66" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="M66" t="n">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>02/04/2024</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>-0.7(-0.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>969,000</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>164,000</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="K67" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="L67" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.3(0.32</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>1,221,000</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>116.16</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="L68" t="n">
+        <v>96</v>
+      </c>
+      <c r="M68" t="n">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>29/03/2024</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>-0.8(-0.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>801,200</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>76.28</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>164,000</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="K69" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="L69" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="M69" t="n">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>28/03/2024</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-0.1(-0.10</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>1,232,800</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>118.16</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K70" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="M70" t="n">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>27/03/2024</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-0.5(-0.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>1,046,200</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>100.35</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>213,800</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K71" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>26/03/2024</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0.6(0.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>735,400</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>70.79000000000001</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>96</v>
+      </c>
+      <c r="L72" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="M72" t="n">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>25/03/2024</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-0.7(-0.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1,368,800</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>213,800</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="K73" t="n">
+        <v>95</v>
+      </c>
+      <c r="L73" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="M73" t="n">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>22/03/2024</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1.2(1.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>1,844,100</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>177.32</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>44,900</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K74" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="M74" t="n">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>21/03/2024</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2(2.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1,452,700</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>138.06</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>241,400</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>22.38</v>
+      </c>
+      <c r="K75" t="n">
+        <v>94</v>
+      </c>
+      <c r="L75" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="M75" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20/03/2024</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0.7(0.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>897,700</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>83.81999999999999</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>73,200</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K76" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="L76" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="M76" t="n">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>19/03/2024</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-0.5(-0.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>868,500</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>80.48</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>191,600</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="K77" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="L77" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="M77" t="n">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>18/03/2024</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>93</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-1(-1.06</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>1,839,300</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>171.22</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>28,300</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K78" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="M78" t="n">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>15/03/2024</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>94</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-1(-1.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2,302,500</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>216.94</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>164,000</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="K79" t="n">
+        <v>95</v>
+      </c>
+      <c r="L79" t="n">
+        <v>95</v>
+      </c>
+      <c r="M79" t="n">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>14/03/2024</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>95</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-1(-1.04</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,319,300</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>220.98</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>28,301</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K80" t="n">
+        <v>96</v>
+      </c>
+      <c r="L80" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="M80" t="n">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>13/03/2024</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>96</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1.6(1.69</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>3,124,500</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>299.07</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="L81" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="M81" t="n">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0.3(0.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>1,107,000</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>104.52</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>28,300</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K82" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="L82" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="M82" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-1(-1.05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1,840,000</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>164,000</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="K83" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="L83" t="n">
+        <v>96</v>
+      </c>
+      <c r="M83" t="n">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>08/03/2024</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-0.7(-0.73</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2,229,600</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>28,300</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K84" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="L84" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="M84" t="n">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>07/03/2024</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0.2(0.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2,362,300</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>227.45</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>144,000</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="K85" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="L85" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="M85" t="n">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>06/03/2024</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.7(0.73</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1,307,400</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>125.59</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>20,000</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K86" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="M86" t="n">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>05/03/2024</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-0.5(-0.52</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1,364,800</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>130.39</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K87" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="L87" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="M87" t="n">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>04/03/2024</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>96</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-1.3(-1.34</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>1,640,400</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>157.86</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>94,000</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="K88" t="n">
+        <v>98</v>
+      </c>
+      <c r="L88" t="n">
+        <v>98</v>
+      </c>
+      <c r="M88" t="n">
+        <v>95.59999999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>01/03/2024</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0(0.00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,379,600</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>229.55</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>44,000</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>29/02/2024</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-0.1(-0.10</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1,897,000</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>187.15</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>94,000</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="K90" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="L90" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="M90" t="n">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>28/02/2024</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>6.3(6.92</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>4,219,900</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>401.6</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>114,000</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="K91" t="n">
+        <v>91</v>
+      </c>
+      <c r="L91" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="M91" t="n">
+        <v>90.40000000000001</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>27/02/2024</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1.6(1.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>1,604,900</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>144.9</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>94,000</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="K92" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="L92" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>89.09999999999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>26/02/2024</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0.6(0.67</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>722,000</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K93" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="L93" t="n">
+        <v>90</v>
+      </c>
+      <c r="M93" t="n">
+        <v>88.90000000000001</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>23/02/2024</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-0.6(-0.67</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1,800,900</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>162.64</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>94,000</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="M94" t="n">
+        <v>88.90000000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>22/02/2024</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-1.7(-1.86</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>1,223,900</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>110.31</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="K95" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="L95" t="n">
+        <v>91</v>
+      </c>
+      <c r="M95" t="n">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>21/02/2024</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-0.1(-0.11</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>1,367,400</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>124.47</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>94,000</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K96" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="L96" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="M96" t="n">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>20/02/2024</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1.1(1.22</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,404,300</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>126.74</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>116,000</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="K97" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="L97" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="M97" t="n">
+        <v>89.40000000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>19/02/2024</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0.6(0.67</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,045,300</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>93.77</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>94,000</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="K98" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="L98" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="M98" t="n">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>16/02/2024</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-0.3(-0.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>734,100</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K99" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="L99" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>15/02/2024</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-0.1(-0.11</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>1,046,700</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>93.88</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>94,000</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="K100" t="n">
+        <v>90</v>
+      </c>
+      <c r="L100" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="M100" t="n">
+        <v>89.09999999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>VCB</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>07/02/2024</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>90</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.5(0.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>%)</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1,371,400</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>123.35</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>90</v>
+      </c>
+      <c r="L101" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="M101" t="n">
+        <v>89.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
